--- a/NORM.xlsx
+++ b/NORM.xlsx
@@ -474,7 +474,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -586,11 +586,11 @@
         <v>40</v>
       </c>
       <c r="D6" s="1">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">

--- a/NORM.xlsx
+++ b/NORM.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\mersin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOKHAN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98A34C3-720A-41F4-B86F-D883FFAC90FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Norm Kadro Şablonu" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -85,7 +86,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -470,23 +471,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.19921875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -503,7 +504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -521,7 +522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -539,7 +540,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -557,7 +558,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -565,17 +566,17 @@
         <v>8</v>
       </c>
       <c r="C5" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -583,17 +584,17 @@
         <v>9</v>
       </c>
       <c r="C6" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1">
         <v>52</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -601,17 +602,17 @@
         <v>10</v>
       </c>
       <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -619,17 +620,17 @@
         <v>11</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -637,17 +638,17 @@
         <v>12</v>
       </c>
       <c r="C9" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1">
         <v>12</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -658,14 +659,14 @@
         <v>2</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -687,7 +688,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E1 B2:E2 B8:E8 B3:C3 E3 B4:C4 E4 B5 E5 B6 E6 B7:C7 E7 B10:E10 B9 E9 B11 E11" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E1 B2:E2 B8 B3:C3 E3 B4:C4 E4 B5 E5 B6 E6 B7 E7 B10:C10 B9 E9 B11 E11 D8:E8 E10" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/NORM.xlsx
+++ b/NORM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOKHAN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98A34C3-720A-41F4-B86F-D883FFAC90FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46BFEBF-795A-436A-BDDE-8F012286F90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -475,7 +475,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -569,11 +569,11 @@
         <v>23</v>
       </c>
       <c r="D5" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -605,11 +605,11 @@
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">

--- a/NORM.xlsx
+++ b/NORM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOKHAN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk44142\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46BFEBF-795A-436A-BDDE-8F012286F90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B06D4DE-928A-40AC-A1EB-05B013DCA87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Norm Kadro Şablonu" sheetId="1" r:id="rId1"/>
@@ -475,19 +475,19 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.25" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -504,7 +504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -533,14 +533,14 @@
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -558,7 +558,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -594,7 +594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -612,7 +612,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -630,7 +630,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -648,7 +648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -666,7 +666,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>

--- a/NORM.xlsx
+++ b/NORM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk44142\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B06D4DE-928A-40AC-A1EB-05B013DCA87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E221B0-491C-4061-A9C5-68C4496B8DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -475,7 +475,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -587,11 +587,11 @@
         <v>39</v>
       </c>
       <c r="D6" s="1">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
